--- a/static/xlsx_files/filled_form/1/Pashayev_Rafiq.xlsx
+++ b/static/xlsx_files/filled_form/1/Pashayev_Rafiq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Counter</t>
   </si>
@@ -49,64 +49,31 @@
     <t>Required</t>
   </si>
   <si>
-    <t>value 1</t>
-  </si>
-  <si>
-    <t>CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value 1
-value 2
+    <t>SD DA</t>
+  </si>
+  <si>
+    <t>No value given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD DA
+ACFS
 </t>
   </si>
   <si>
-    <t>No value given</t>
-  </si>
-  <si>
-    <t>Title 1</t>
-  </si>
-  <si>
-    <t>Desc 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images.pexels.com/photos/268533/pexels-photo-268533.jpeg?cs=srgb&amp;dl=pexels-pixabay-268533.jpg&amp;fm=jpg
-https://images.unsplash.com/photo-1503023345310-bd7c1de61c7d?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxzZWFyY2h8Mnx8aHVtYW58ZW58MHx8MHx8&amp;w=1000&amp;q=80
-</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000//static/media/1/332357ff-9688-4a30-9dfa-f52e5e19e8a4.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=M9j6tAciWQ8
-https://www.youtube.com/watch?v=M9j6tAciWQ8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sayt.az
-http://sayt.com
-</t>
+    <t>What is Lorem Ipsum?</t>
+  </si>
+  <si>
+    <t>sdvvsa</t>
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>QECADV</t>
-  </si>
-  <si>
-    <t>Title 2</t>
-  </si>
-  <si>
-    <t>Desc 2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000//static/media/1/94408e0a-35ab-438f-9cb5-84a39d00c879.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +88,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -165,22 +125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,70 +477,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>